--- a/tool/umem_MTK.xlsx
+++ b/tool/umem_MTK.xlsx
@@ -56,63 +56,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3AE000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址增加单位：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileSystemConfig:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+8*N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大=68+[4,6]=72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(200-200-200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(150-150-150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信50：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信150：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信100：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信200：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIVA End:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1024M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2^32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3AE000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址增加单位：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIVA End:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileSystemConfig:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+8*N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大=68+[4,6]=72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(200-200-200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(150-150-150)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信50：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信150：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信100：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信200：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>0x003B8000</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K2" s="4" t="str">
         <f>"3B8000"</f>
@@ -942,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -956,10 +956,10 @@
       <c r="I8" s="1"/>
       <c r="K8" s="1"/>
       <c r="O8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
     </row>
     <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4">
         <v>60</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18" s="23">
         <f>40-6.5</f>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -1318,32 +1318,28 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G25">
-        <f>+E12-D12</f>
-        <v>8192</v>
-      </c>
-      <c r="J25">
-        <f>+H12-G12</f>
-        <v>-2048</v>
-      </c>
-      <c r="K25">
-        <f>+I12-H12</f>
-        <v>30720</v>
-      </c>
-      <c r="L25">
-        <f>+J12-I12</f>
-        <v>-30720</v>
-      </c>
+      <c r="I25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>512</v>
       </c>
+      <c r="I27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E28">
@@ -1357,15 +1353,15 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
         <v>21</v>
-      </c>
-      <c r="H31" t="s">
-        <v>24</v>
       </c>
       <c r="I31" s="2">
         <f>54*0.5</f>
@@ -1378,10 +1374,10 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I32" s="2">
         <f>36*0.5</f>
@@ -1397,7 +1393,7 @@
         <v>512</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I33" s="2">
         <f>18*0.5</f>
@@ -1424,7 +1420,7 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
